--- a/To-Do/MainALR.xlsx
+++ b/To-Do/MainALR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="59">
   <si>
     <t>MAIN ALR</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Node Name: Sweep Scene</t>
+  </si>
+  <si>
+    <t>To use the sweep scene node to sweep the camera between two locations, put in the first, and current location, in the Scene #1 Slot. It is very important that the camera is already at the first location you input. Next you input the desired location to interpolate to in the Scene #2 Slot, you'll have to tinker a little bit with the speed and rotate value, the rotate value should probably be VERY low though, the default values are about what is good for most cases.</t>
   </si>
   <si>
     <t>Title Card Popup</t>
@@ -1139,7 +1142,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="D9" s="22" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>25</v>
@@ -1152,7 +1155,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="9"/>
       <c r="K9" s="20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9"/>
@@ -1185,17 +1188,17 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="D10" s="15"/>
       <c r="E10" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
       <c r="H10" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="9"/>
       <c r="K10" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9"/>
@@ -6144,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -6152,7 +6155,7 @@
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
       <c r="D3" s="36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -6181,7 +6184,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
@@ -6196,7 +6199,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="9"/>
       <c r="N5" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="9"/>
@@ -6205,7 +6208,7 @@
         <v>7</v>
       </c>
       <c r="S5" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" s="8"/>
       <c r="U5" s="9"/>
@@ -6220,7 +6223,7 @@
       <c r="Z5" s="8"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC5" s="8"/>
       <c r="AD5" s="9"/>
@@ -6228,7 +6231,7 @@
         <v>7</v>
       </c>
       <c r="AG5" s="41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AH5" s="25"/>
       <c r="AI5" s="26"/>
@@ -6243,7 +6246,7 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="9"/>
       <c r="AP5" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="9"/>
@@ -6257,17 +6260,17 @@
         <v>21</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
       <c r="H6" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
       <c r="K6" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9"/>
@@ -6309,17 +6312,17 @@
       <c r="B7" s="9"/>
       <c r="D7" s="43"/>
       <c r="E7" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="9"/>
       <c r="K7" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9"/>
@@ -6361,17 +6364,17 @@
       <c r="B8" s="9"/>
       <c r="D8" s="43"/>
       <c r="E8" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="9"/>
       <c r="K8" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="9"/>
@@ -6409,17 +6412,17 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="D9" s="43"/>
       <c r="E9" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="9"/>
       <c r="K9" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9"/>
@@ -6457,17 +6460,17 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="D10" s="43"/>
       <c r="E10" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
       <c r="H10" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="9"/>
       <c r="K10" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="9"/>
@@ -6504,7 +6507,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4"/>
       <c r="D11" s="43"/>
@@ -6676,7 +6679,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="4"/>
       <c r="D15" s="43"/>
@@ -10373,61 +10376,786 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="929">
+    <mergeCell ref="AB59:AD59"/>
+    <mergeCell ref="AG59:AI59"/>
+    <mergeCell ref="AJ59:AL59"/>
+    <mergeCell ref="AM59:AO59"/>
+    <mergeCell ref="AP59:AR59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="AG60:AI60"/>
+    <mergeCell ref="AJ60:AL60"/>
+    <mergeCell ref="AM60:AO60"/>
+    <mergeCell ref="AP60:AR60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="AB61:AD61"/>
+    <mergeCell ref="AG61:AI61"/>
+    <mergeCell ref="AJ61:AL61"/>
+    <mergeCell ref="AM61:AO61"/>
+    <mergeCell ref="AP61:AR61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="AB62:AD62"/>
+    <mergeCell ref="AG62:AI62"/>
+    <mergeCell ref="AJ62:AL62"/>
+    <mergeCell ref="AM62:AO62"/>
+    <mergeCell ref="AP62:AR62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="AB63:AD63"/>
+    <mergeCell ref="AG63:AI63"/>
+    <mergeCell ref="AJ63:AL63"/>
+    <mergeCell ref="AM63:AO63"/>
+    <mergeCell ref="AP63:AR63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="AB64:AD64"/>
+    <mergeCell ref="AG64:AI64"/>
+    <mergeCell ref="AJ64:AL64"/>
+    <mergeCell ref="AM64:AO64"/>
+    <mergeCell ref="AP64:AR64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="AB65:AD65"/>
+    <mergeCell ref="AG65:AI65"/>
+    <mergeCell ref="AJ65:AL65"/>
+    <mergeCell ref="AM65:AO65"/>
+    <mergeCell ref="AP65:AR65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="AB66:AD66"/>
+    <mergeCell ref="AG66:AI66"/>
+    <mergeCell ref="AJ66:AL66"/>
+    <mergeCell ref="AM66:AO66"/>
+    <mergeCell ref="AP66:AR66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="AB67:AD67"/>
+    <mergeCell ref="AG67:AI67"/>
+    <mergeCell ref="AJ67:AL67"/>
+    <mergeCell ref="AM67:AO67"/>
+    <mergeCell ref="AP67:AR67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="AB68:AD68"/>
+    <mergeCell ref="AG68:AI68"/>
+    <mergeCell ref="AJ68:AL68"/>
+    <mergeCell ref="AM68:AO68"/>
+    <mergeCell ref="AP68:AR68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="AB69:AD69"/>
+    <mergeCell ref="AG69:AI69"/>
+    <mergeCell ref="AJ69:AL69"/>
+    <mergeCell ref="AM69:AO69"/>
+    <mergeCell ref="AP69:AR69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="AB70:AD70"/>
+    <mergeCell ref="AG70:AI70"/>
+    <mergeCell ref="AJ70:AL70"/>
+    <mergeCell ref="AM70:AO70"/>
+    <mergeCell ref="AP70:AR70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="AB71:AD71"/>
+    <mergeCell ref="AG71:AI71"/>
+    <mergeCell ref="AJ71:AL71"/>
+    <mergeCell ref="AM71:AO71"/>
+    <mergeCell ref="AP71:AR71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="AB72:AD72"/>
+    <mergeCell ref="AG72:AI72"/>
+    <mergeCell ref="AJ72:AL72"/>
+    <mergeCell ref="AM72:AO72"/>
+    <mergeCell ref="AP72:AR72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="AB80:AD80"/>
+    <mergeCell ref="AG80:AI80"/>
+    <mergeCell ref="AJ80:AL80"/>
+    <mergeCell ref="AM80:AO80"/>
+    <mergeCell ref="AP80:AR80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="AM8:AO8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="AM9:AO9"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AG10:AI10"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AM10:AO10"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB81:AD81"/>
+    <mergeCell ref="AG81:AI81"/>
+    <mergeCell ref="AJ81:AL81"/>
+    <mergeCell ref="AM81:AO81"/>
+    <mergeCell ref="AP81:AR81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="AB73:AD73"/>
+    <mergeCell ref="AG73:AI73"/>
+    <mergeCell ref="AJ73:AL73"/>
+    <mergeCell ref="AM73:AO73"/>
+    <mergeCell ref="AP73:AR73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="AB74:AD74"/>
+    <mergeCell ref="AG74:AI74"/>
+    <mergeCell ref="AJ74:AL74"/>
+    <mergeCell ref="AM74:AO74"/>
+    <mergeCell ref="AP74:AR74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="AB75:AD75"/>
+    <mergeCell ref="AG75:AI75"/>
+    <mergeCell ref="AJ75:AL75"/>
+    <mergeCell ref="AM75:AO75"/>
+    <mergeCell ref="AP75:AR75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="AB76:AD76"/>
+    <mergeCell ref="AG76:AI76"/>
+    <mergeCell ref="AJ76:AL76"/>
+    <mergeCell ref="AM76:AO76"/>
+    <mergeCell ref="AP76:AR76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="AB77:AD77"/>
+    <mergeCell ref="AG77:AI77"/>
+    <mergeCell ref="AJ77:AL77"/>
+    <mergeCell ref="AM77:AO77"/>
+    <mergeCell ref="AP77:AR77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="AB78:AD78"/>
+    <mergeCell ref="AG78:AI78"/>
+    <mergeCell ref="AJ78:AL78"/>
+    <mergeCell ref="AM78:AO78"/>
+    <mergeCell ref="AP78:AR78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="AB79:AD79"/>
+    <mergeCell ref="AG79:AI79"/>
+    <mergeCell ref="AJ79:AL79"/>
+    <mergeCell ref="AM79:AO79"/>
+    <mergeCell ref="AP79:AR79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AP5:AR5"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AG6:AI6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AG7:AI7"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="AM7:AO7"/>
+    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AM11:AO11"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="AM12:AO12"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AG13:AI13"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="AM13:AO13"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
     <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N13:P13"/>
     <mergeCell ref="V13:X13"/>
     <mergeCell ref="Y13:AA13"/>
     <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AG14:AI14"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="AM14:AO14"/>
+    <mergeCell ref="AP14:AR14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
     <mergeCell ref="N14:P14"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
     <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AG15:AI15"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AM15:AO15"/>
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:P15"/>
     <mergeCell ref="S15:U15"/>
     <mergeCell ref="V15:X15"/>
     <mergeCell ref="Y15:AA15"/>
     <mergeCell ref="AB16:AD16"/>
     <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AM16:AO16"/>
     <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AG17:AI17"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AM17:AO17"/>
+    <mergeCell ref="AP17:AR17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="S17:U17"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AP15:AR15"/>
-    <mergeCell ref="AP17:AR17"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AG14:AI14"/>
-    <mergeCell ref="AP14:AR14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AG15:AI15"/>
-    <mergeCell ref="AG17:AI17"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AG18:AI18"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="AM18:AO18"/>
+    <mergeCell ref="AP18:AR18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="S18:U18"/>
     <mergeCell ref="V18:X18"/>
     <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="AG19:AI19"/>
+    <mergeCell ref="AJ19:AL19"/>
+    <mergeCell ref="AM19:AO19"/>
+    <mergeCell ref="AP19:AR19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="N19:P19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AG20:AI20"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="AM20:AO20"/>
+    <mergeCell ref="AP20:AR20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="AG21:AI21"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="AM21:AO21"/>
+    <mergeCell ref="AP21:AR21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="AM22:AO22"/>
+    <mergeCell ref="AP22:AR22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="AG23:AI23"/>
+    <mergeCell ref="AJ23:AL23"/>
+    <mergeCell ref="AM23:AO23"/>
+    <mergeCell ref="AP23:AR23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="AG24:AI24"/>
+    <mergeCell ref="AJ24:AL24"/>
+    <mergeCell ref="AM24:AO24"/>
+    <mergeCell ref="AP24:AR24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AG25:AI25"/>
+    <mergeCell ref="AJ25:AL25"/>
+    <mergeCell ref="AM25:AO25"/>
+    <mergeCell ref="AP25:AR25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AG26:AI26"/>
+    <mergeCell ref="AJ26:AL26"/>
+    <mergeCell ref="AM26:AO26"/>
+    <mergeCell ref="AP26:AR26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="AG27:AI27"/>
+    <mergeCell ref="AJ27:AL27"/>
+    <mergeCell ref="AM27:AO27"/>
+    <mergeCell ref="AP27:AR27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AG28:AI28"/>
+    <mergeCell ref="AJ28:AL28"/>
+    <mergeCell ref="AM28:AO28"/>
+    <mergeCell ref="AP28:AR28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="AG29:AI29"/>
+    <mergeCell ref="AJ29:AL29"/>
+    <mergeCell ref="AM29:AO29"/>
+    <mergeCell ref="AP29:AR29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AG30:AI30"/>
+    <mergeCell ref="AJ30:AL30"/>
+    <mergeCell ref="AM30:AO30"/>
+    <mergeCell ref="AP30:AR30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="AG31:AI31"/>
+    <mergeCell ref="AJ31:AL31"/>
+    <mergeCell ref="AM31:AO31"/>
+    <mergeCell ref="AP31:AR31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="AG32:AI32"/>
+    <mergeCell ref="AJ32:AL32"/>
+    <mergeCell ref="AM32:AO32"/>
+    <mergeCell ref="AP32:AR32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AG33:AI33"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AM33:AO33"/>
+    <mergeCell ref="AP33:AR33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="AG34:AI34"/>
+    <mergeCell ref="AJ34:AL34"/>
+    <mergeCell ref="AM34:AO34"/>
+    <mergeCell ref="AP34:AR34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="AB35:AD35"/>
+    <mergeCell ref="AG35:AI35"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="AM35:AO35"/>
+    <mergeCell ref="AP35:AR35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="AG36:AI36"/>
+    <mergeCell ref="AJ36:AL36"/>
+    <mergeCell ref="AM36:AO36"/>
+    <mergeCell ref="AP36:AR36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="AB37:AD37"/>
+    <mergeCell ref="AG37:AI37"/>
+    <mergeCell ref="AJ37:AL37"/>
+    <mergeCell ref="AM37:AO37"/>
+    <mergeCell ref="AP37:AR37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="AG38:AI38"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AM38:AO38"/>
+    <mergeCell ref="AP38:AR38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="AB39:AD39"/>
+    <mergeCell ref="AG39:AI39"/>
+    <mergeCell ref="AJ39:AL39"/>
+    <mergeCell ref="AM39:AO39"/>
+    <mergeCell ref="AP39:AR39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="AB40:AD40"/>
+    <mergeCell ref="AG40:AI40"/>
+    <mergeCell ref="AJ40:AL40"/>
+    <mergeCell ref="AM40:AO40"/>
+    <mergeCell ref="AP40:AR40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AG41:AI41"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="AM41:AO41"/>
+    <mergeCell ref="AP41:AR41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="AB42:AD42"/>
+    <mergeCell ref="AG42:AI42"/>
+    <mergeCell ref="AJ42:AL42"/>
+    <mergeCell ref="AM42:AO42"/>
+    <mergeCell ref="AP42:AR42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="AG43:AI43"/>
+    <mergeCell ref="AJ43:AL43"/>
+    <mergeCell ref="AM43:AO43"/>
+    <mergeCell ref="AP43:AR43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="AB44:AD44"/>
+    <mergeCell ref="AG44:AI44"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AM44:AO44"/>
+    <mergeCell ref="AP44:AR44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
     <mergeCell ref="Y44:AA44"/>
     <mergeCell ref="AB45:AD45"/>
     <mergeCell ref="AG45:AI45"/>
+    <mergeCell ref="AJ45:AL45"/>
+    <mergeCell ref="AM45:AO45"/>
+    <mergeCell ref="AP45:AR45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
     <mergeCell ref="K45:M45"/>
     <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Y45:AA45"/>
     <mergeCell ref="S45:U45"/>
     <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
     <mergeCell ref="AB46:AD46"/>
     <mergeCell ref="AG46:AI46"/>
+    <mergeCell ref="AJ46:AL46"/>
+    <mergeCell ref="AM46:AO46"/>
+    <mergeCell ref="AP46:AR46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
     <mergeCell ref="K46:M46"/>
     <mergeCell ref="N46:P46"/>
     <mergeCell ref="S46:U46"/>
@@ -10435,6 +11163,11 @@
     <mergeCell ref="Y46:AA46"/>
     <mergeCell ref="AB47:AD47"/>
     <mergeCell ref="AG47:AI47"/>
+    <mergeCell ref="AJ47:AL47"/>
+    <mergeCell ref="AM47:AO47"/>
+    <mergeCell ref="AP47:AR47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
     <mergeCell ref="K47:M47"/>
     <mergeCell ref="N47:P47"/>
     <mergeCell ref="S47:U47"/>
@@ -10442,6 +11175,11 @@
     <mergeCell ref="Y47:AA47"/>
     <mergeCell ref="AB48:AD48"/>
     <mergeCell ref="AG48:AI48"/>
+    <mergeCell ref="AJ48:AL48"/>
+    <mergeCell ref="AM48:AO48"/>
+    <mergeCell ref="AP48:AR48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
     <mergeCell ref="K48:M48"/>
     <mergeCell ref="N48:P48"/>
     <mergeCell ref="S48:U48"/>
@@ -10449,859 +11187,124 @@
     <mergeCell ref="Y48:AA48"/>
     <mergeCell ref="AB49:AD49"/>
     <mergeCell ref="AG49:AI49"/>
+    <mergeCell ref="AJ49:AL49"/>
+    <mergeCell ref="AM49:AO49"/>
+    <mergeCell ref="AP49:AR49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="K49:M49"/>
     <mergeCell ref="N49:P49"/>
     <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="AB50:AD50"/>
+    <mergeCell ref="AG50:AI50"/>
+    <mergeCell ref="AJ50:AL50"/>
+    <mergeCell ref="AM50:AO50"/>
+    <mergeCell ref="AP50:AR50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="S50:U50"/>
     <mergeCell ref="V50:X50"/>
     <mergeCell ref="Y50:AA50"/>
     <mergeCell ref="AB51:AD51"/>
     <mergeCell ref="AG51:AI51"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="AB50:AD50"/>
-    <mergeCell ref="AG50:AI50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AG18:AI18"/>
-    <mergeCell ref="AP18:AR18"/>
-    <mergeCell ref="AG19:AI19"/>
-    <mergeCell ref="AP19:AR19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AG20:AI20"/>
-    <mergeCell ref="AP20:AR20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="AM14:AO14"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AM15:AO15"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AM16:AO16"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AM17:AO17"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="AM18:AO18"/>
-    <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="AM19:AO19"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="AM20:AO20"/>
-    <mergeCell ref="AG54:AI54"/>
-    <mergeCell ref="AG55:AI55"/>
-    <mergeCell ref="AJ55:AL55"/>
-    <mergeCell ref="AG56:AI56"/>
-    <mergeCell ref="AJ56:AL56"/>
-    <mergeCell ref="AG57:AI57"/>
-    <mergeCell ref="AJ57:AL57"/>
-    <mergeCell ref="AG58:AI58"/>
-    <mergeCell ref="AJ58:AL58"/>
-    <mergeCell ref="AG73:AI73"/>
-    <mergeCell ref="AJ73:AL73"/>
-    <mergeCell ref="AG52:AI52"/>
-    <mergeCell ref="AJ52:AL52"/>
-    <mergeCell ref="AG53:AI53"/>
-    <mergeCell ref="AJ53:AL53"/>
-    <mergeCell ref="AJ54:AL54"/>
-    <mergeCell ref="AM56:AO56"/>
-    <mergeCell ref="AP56:AR56"/>
-    <mergeCell ref="AM57:AO57"/>
-    <mergeCell ref="AP57:AR57"/>
-    <mergeCell ref="AM58:AO58"/>
-    <mergeCell ref="AP58:AR58"/>
-    <mergeCell ref="AM73:AO73"/>
-    <mergeCell ref="AP73:AR73"/>
+    <mergeCell ref="AJ51:AL51"/>
+    <mergeCell ref="AM51:AO51"/>
     <mergeCell ref="AP51:AR51"/>
-    <mergeCell ref="AM52:AO52"/>
-    <mergeCell ref="AP52:AR52"/>
-    <mergeCell ref="AM53:AO53"/>
-    <mergeCell ref="AP53:AR53"/>
-    <mergeCell ref="AG74:AI74"/>
-    <mergeCell ref="AJ74:AL74"/>
-    <mergeCell ref="AM74:AO74"/>
-    <mergeCell ref="AP74:AR74"/>
-    <mergeCell ref="AG75:AI75"/>
-    <mergeCell ref="AJ75:AL75"/>
-    <mergeCell ref="AM75:AO75"/>
-    <mergeCell ref="AP75:AR75"/>
-    <mergeCell ref="AG76:AI76"/>
-    <mergeCell ref="AJ76:AL76"/>
-    <mergeCell ref="AM54:AO54"/>
-    <mergeCell ref="AP54:AR54"/>
-    <mergeCell ref="AM55:AO55"/>
-    <mergeCell ref="AP55:AR55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
     <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="S81:U81"/>
     <mergeCell ref="N51:P51"/>
     <mergeCell ref="S51:U51"/>
     <mergeCell ref="V51:X51"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="AB81:AD81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="AB73:AD73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="AB74:AD74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="AB75:AD75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="AB76:AD76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="V76:X76"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="AB77:AD77"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="V77:X77"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="AB57:AD57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="AB58:AD58"/>
-    <mergeCell ref="Y58:AA58"/>
     <mergeCell ref="Y51:AA51"/>
     <mergeCell ref="AB52:AD52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="AB53:AD53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="AB54:AD54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="AM76:AO76"/>
-    <mergeCell ref="AP76:AR76"/>
-    <mergeCell ref="AM78:AO78"/>
-    <mergeCell ref="AP78:AR78"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="AB80:AD80"/>
-    <mergeCell ref="AB79:AD79"/>
-    <mergeCell ref="AG79:AI79"/>
-    <mergeCell ref="AJ79:AL79"/>
-    <mergeCell ref="AM79:AO79"/>
-    <mergeCell ref="AP79:AR79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="AJ80:AL80"/>
-    <mergeCell ref="AM80:AO80"/>
-    <mergeCell ref="AP80:AR80"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="AG78:AI78"/>
-    <mergeCell ref="AJ78:AL78"/>
-    <mergeCell ref="AG80:AI80"/>
-    <mergeCell ref="AG81:AI81"/>
-    <mergeCell ref="AJ81:AL81"/>
-    <mergeCell ref="AM81:AO81"/>
-    <mergeCell ref="AP81:AR81"/>
-    <mergeCell ref="AG77:AI77"/>
-    <mergeCell ref="AJ77:AL77"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AM12:AO12"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="AG11:AI11"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AG12:AI12"/>
-    <mergeCell ref="AG7:AI7"/>
-    <mergeCell ref="AJ7:AL7"/>
-    <mergeCell ref="AG21:AI21"/>
-    <mergeCell ref="AJ21:AL21"/>
-    <mergeCell ref="AM21:AO21"/>
-    <mergeCell ref="AP21:AR21"/>
-    <mergeCell ref="AP22:AR22"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="AG23:AI23"/>
-    <mergeCell ref="AJ23:AL23"/>
-    <mergeCell ref="AM23:AO23"/>
-    <mergeCell ref="AP23:AR23"/>
-    <mergeCell ref="AG24:AI24"/>
-    <mergeCell ref="AJ24:AL24"/>
-    <mergeCell ref="AG10:AI10"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AG6:AI6"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AM7:AO7"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AP5:AR5"/>
-    <mergeCell ref="AM6:AO6"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AJ22:AL22"/>
-    <mergeCell ref="AM22:AO22"/>
-    <mergeCell ref="AM24:AO24"/>
-    <mergeCell ref="AP24:AR24"/>
-    <mergeCell ref="AG25:AI25"/>
-    <mergeCell ref="AJ25:AL25"/>
-    <mergeCell ref="AM25:AO25"/>
-    <mergeCell ref="AP25:AR25"/>
-    <mergeCell ref="AG26:AI26"/>
-    <mergeCell ref="AJ26:AL26"/>
-    <mergeCell ref="AM26:AO26"/>
-    <mergeCell ref="AP26:AR26"/>
+    <mergeCell ref="AG52:AI52"/>
+    <mergeCell ref="AJ52:AL52"/>
+    <mergeCell ref="AM52:AO52"/>
+    <mergeCell ref="AP52:AR52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
     <mergeCell ref="K52:M52"/>
     <mergeCell ref="N52:P52"/>
     <mergeCell ref="S52:U52"/>
     <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="AB53:AD53"/>
+    <mergeCell ref="AG53:AI53"/>
+    <mergeCell ref="AJ53:AL53"/>
+    <mergeCell ref="AM53:AO53"/>
+    <mergeCell ref="AP53:AR53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
     <mergeCell ref="K53:M53"/>
     <mergeCell ref="N53:P53"/>
     <mergeCell ref="S53:U53"/>
     <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="AB54:AD54"/>
+    <mergeCell ref="AG54:AI54"/>
+    <mergeCell ref="AJ54:AL54"/>
+    <mergeCell ref="AM54:AO54"/>
+    <mergeCell ref="AP54:AR54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
     <mergeCell ref="K54:M54"/>
     <mergeCell ref="N54:P54"/>
     <mergeCell ref="S54:U54"/>
     <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="AB55:AD55"/>
+    <mergeCell ref="AG55:AI55"/>
+    <mergeCell ref="AJ55:AL55"/>
+    <mergeCell ref="AM55:AO55"/>
+    <mergeCell ref="AP55:AR55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
     <mergeCell ref="K55:M55"/>
     <mergeCell ref="N55:P55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="AB55:AD55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
     <mergeCell ref="Y55:AA55"/>
     <mergeCell ref="AB56:AD56"/>
+    <mergeCell ref="AG56:AI56"/>
+    <mergeCell ref="AJ56:AL56"/>
+    <mergeCell ref="AM56:AO56"/>
+    <mergeCell ref="AP56:AR56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:M56"/>
     <mergeCell ref="N56:P56"/>
     <mergeCell ref="S56:U56"/>
     <mergeCell ref="V56:X56"/>
     <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="AB59:AD59"/>
-    <mergeCell ref="AG59:AI59"/>
-    <mergeCell ref="AJ59:AL59"/>
-    <mergeCell ref="AM59:AO59"/>
-    <mergeCell ref="AP59:AR59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="AG60:AI60"/>
-    <mergeCell ref="AJ60:AL60"/>
-    <mergeCell ref="AM60:AO60"/>
-    <mergeCell ref="AP60:AR60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="AB61:AD61"/>
-    <mergeCell ref="AG61:AI61"/>
-    <mergeCell ref="AJ61:AL61"/>
-    <mergeCell ref="AM61:AO61"/>
-    <mergeCell ref="AP61:AR61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="AB62:AD62"/>
-    <mergeCell ref="AG62:AI62"/>
-    <mergeCell ref="AJ62:AL62"/>
-    <mergeCell ref="AM62:AO62"/>
-    <mergeCell ref="AP62:AR62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="AB69:AD69"/>
-    <mergeCell ref="AG69:AI69"/>
-    <mergeCell ref="AJ69:AL69"/>
-    <mergeCell ref="AM69:AO69"/>
-    <mergeCell ref="AP69:AR69"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="AB70:AD70"/>
-    <mergeCell ref="AG70:AI70"/>
-    <mergeCell ref="AJ70:AL70"/>
-    <mergeCell ref="AM70:AO70"/>
-    <mergeCell ref="AP70:AR70"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="AB71:AD71"/>
-    <mergeCell ref="AG71:AI71"/>
-    <mergeCell ref="AJ71:AL71"/>
-    <mergeCell ref="AM71:AO71"/>
-    <mergeCell ref="AP71:AR71"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="AB72:AD72"/>
-    <mergeCell ref="AG72:AI72"/>
-    <mergeCell ref="AJ72:AL72"/>
-    <mergeCell ref="AM72:AO72"/>
-    <mergeCell ref="AP72:AR72"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="AB67:AD67"/>
-    <mergeCell ref="AG67:AI67"/>
-    <mergeCell ref="AJ67:AL67"/>
-    <mergeCell ref="AM67:AO67"/>
-    <mergeCell ref="AP67:AR67"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="AB66:AD66"/>
-    <mergeCell ref="AG66:AI66"/>
-    <mergeCell ref="AM66:AO66"/>
-    <mergeCell ref="AP66:AR66"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="AG57:AI57"/>
+    <mergeCell ref="AJ57:AL57"/>
+    <mergeCell ref="AM57:AO57"/>
+    <mergeCell ref="AP57:AR57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="AB58:AD58"/>
+    <mergeCell ref="AG58:AI58"/>
+    <mergeCell ref="AJ58:AL58"/>
+    <mergeCell ref="AM58:AO58"/>
+    <mergeCell ref="AP58:AR58"/>
     <mergeCell ref="E58:G58"/>
     <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB78:AD78"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="AB39:AD39"/>
-    <mergeCell ref="AB40:AD40"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AB42:AD42"/>
-    <mergeCell ref="AB43:AD43"/>
-    <mergeCell ref="AB44:AD44"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="AB63:AD63"/>
-    <mergeCell ref="AG63:AI63"/>
-    <mergeCell ref="AJ63:AL63"/>
-    <mergeCell ref="AM63:AO63"/>
-    <mergeCell ref="AP63:AR63"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="AG64:AI64"/>
-    <mergeCell ref="AJ64:AL64"/>
-    <mergeCell ref="AM64:AO64"/>
-    <mergeCell ref="AP64:AR64"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="AB64:AD64"/>
-    <mergeCell ref="AB65:AD65"/>
-    <mergeCell ref="AG65:AI65"/>
-    <mergeCell ref="AJ65:AL65"/>
-    <mergeCell ref="AM65:AO65"/>
-    <mergeCell ref="AP65:AR65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="AB68:AD68"/>
-    <mergeCell ref="AG68:AI68"/>
-    <mergeCell ref="AJ68:AL68"/>
-    <mergeCell ref="AM68:AO68"/>
-    <mergeCell ref="AP68:AR68"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="AM77:AO77"/>
-    <mergeCell ref="AP77:AR77"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="AG27:AI27"/>
-    <mergeCell ref="AJ27:AL27"/>
-    <mergeCell ref="AM27:AO27"/>
-    <mergeCell ref="AP27:AR27"/>
-    <mergeCell ref="AP28:AR28"/>
-    <mergeCell ref="AJ30:AL30"/>
-    <mergeCell ref="AM30:AO30"/>
-    <mergeCell ref="AJ28:AL28"/>
-    <mergeCell ref="AM28:AO28"/>
-    <mergeCell ref="AG29:AI29"/>
-    <mergeCell ref="AJ29:AL29"/>
-    <mergeCell ref="AM29:AO29"/>
-    <mergeCell ref="AP29:AR29"/>
-    <mergeCell ref="AG30:AI30"/>
-    <mergeCell ref="AP30:AR30"/>
-    <mergeCell ref="AM32:AO32"/>
-    <mergeCell ref="AP32:AR32"/>
-    <mergeCell ref="AG28:AI28"/>
-    <mergeCell ref="AG31:AI31"/>
-    <mergeCell ref="AJ31:AL31"/>
-    <mergeCell ref="AM31:AO31"/>
-    <mergeCell ref="AP31:AR31"/>
-    <mergeCell ref="AG32:AI32"/>
-    <mergeCell ref="AJ32:AL32"/>
-    <mergeCell ref="AG34:AI34"/>
-    <mergeCell ref="AG35:AI35"/>
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="AM35:AO35"/>
-    <mergeCell ref="AP35:AR35"/>
-    <mergeCell ref="AG33:AI33"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AM33:AO33"/>
-    <mergeCell ref="AP33:AR33"/>
-    <mergeCell ref="AJ34:AL34"/>
-    <mergeCell ref="AM34:AO34"/>
-    <mergeCell ref="AP34:AR34"/>
-    <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="AB38:AD38"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="AB35:AD35"/>
-    <mergeCell ref="AB36:AD36"/>
-    <mergeCell ref="AG37:AI37"/>
-    <mergeCell ref="AG38:AI38"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AM38:AO38"/>
-    <mergeCell ref="AP38:AR38"/>
-    <mergeCell ref="AG36:AI36"/>
-    <mergeCell ref="AJ36:AL36"/>
-    <mergeCell ref="AM36:AO36"/>
-    <mergeCell ref="AP36:AR36"/>
-    <mergeCell ref="AJ37:AL37"/>
-    <mergeCell ref="AM37:AO37"/>
-    <mergeCell ref="AP37:AR37"/>
-    <mergeCell ref="AG40:AI40"/>
-    <mergeCell ref="AG41:AI41"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="AM41:AO41"/>
-    <mergeCell ref="AP41:AR41"/>
-    <mergeCell ref="AG39:AI39"/>
-    <mergeCell ref="AJ39:AL39"/>
-    <mergeCell ref="AM39:AO39"/>
-    <mergeCell ref="AP39:AR39"/>
-    <mergeCell ref="AJ40:AL40"/>
-    <mergeCell ref="AM40:AO40"/>
-    <mergeCell ref="AP40:AR40"/>
-    <mergeCell ref="AG43:AI43"/>
-    <mergeCell ref="AG44:AI44"/>
-    <mergeCell ref="AG42:AI42"/>
-    <mergeCell ref="AJ42:AL42"/>
-    <mergeCell ref="AM42:AO42"/>
-    <mergeCell ref="AP42:AR42"/>
-    <mergeCell ref="AJ43:AL43"/>
-    <mergeCell ref="AM43:AO43"/>
-    <mergeCell ref="AP43:AR43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="AJ51:AL51"/>
-    <mergeCell ref="AM51:AO51"/>
-    <mergeCell ref="AJ66:AL66"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="AM8:AO8"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AM9:AO9"/>
-    <mergeCell ref="AM10:AO10"/>
-    <mergeCell ref="AM11:AO11"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AM44:AO44"/>
-    <mergeCell ref="AP44:AR44"/>
-    <mergeCell ref="AJ45:AL45"/>
-    <mergeCell ref="AM45:AO45"/>
-    <mergeCell ref="AP45:AR45"/>
-    <mergeCell ref="AJ46:AL46"/>
-    <mergeCell ref="AM46:AO46"/>
-    <mergeCell ref="AP46:AR46"/>
-    <mergeCell ref="AJ47:AL47"/>
-    <mergeCell ref="AM47:AO47"/>
-    <mergeCell ref="AP47:AR47"/>
-    <mergeCell ref="AJ48:AL48"/>
-    <mergeCell ref="AM48:AO48"/>
-    <mergeCell ref="AP48:AR48"/>
-    <mergeCell ref="AJ49:AL49"/>
-    <mergeCell ref="AM49:AO49"/>
-    <mergeCell ref="AP49:AR49"/>
-    <mergeCell ref="AJ50:AL50"/>
-    <mergeCell ref="AM50:AO50"/>
-    <mergeCell ref="AP50:AR50"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="AG13:AI13"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AM13:AO13"/>
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D6:D81 R6:R81 AF6:AF81">
@@ -11343,7 +11346,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -11351,7 +11354,7 @@
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -11380,7 +11383,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
@@ -11395,7 +11398,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="9"/>
       <c r="N5" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="9"/>
@@ -11404,7 +11407,7 @@
         <v>7</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T5" s="8"/>
       <c r="U5" s="9"/>
@@ -11419,7 +11422,7 @@
       <c r="Z5" s="8"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC5" s="8"/>
       <c r="AD5" s="9"/>
@@ -11427,7 +11430,7 @@
         <v>7</v>
       </c>
       <c r="AG5" s="44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH5" s="25"/>
       <c r="AI5" s="26"/>
@@ -11442,7 +11445,7 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="9"/>
       <c r="AP5" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="9"/>
@@ -11454,22 +11457,22 @@
       <c r="B6" s="9"/>
       <c r="D6" s="43"/>
       <c r="E6" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
       <c r="H6" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
       <c r="K6" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="9"/>
       <c r="N6" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="9"/>
@@ -11508,22 +11511,22 @@
       <c r="B7" s="9"/>
       <c r="D7" s="43"/>
       <c r="E7" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="9"/>
       <c r="K7" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="9"/>
       <c r="N7" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="9"/>
@@ -11687,7 +11690,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4"/>
       <c r="D11" s="43"/>
@@ -11859,7 +11862,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="4"/>
       <c r="D15" s="43"/>
@@ -16526,7 +16529,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -16534,7 +16537,7 @@
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -16563,7 +16566,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
@@ -16578,7 +16581,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="9"/>
       <c r="N5" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="9"/>
@@ -16587,7 +16590,7 @@
         <v>7</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T5" s="8"/>
       <c r="U5" s="9"/>
@@ -16602,7 +16605,7 @@
       <c r="Z5" s="8"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC5" s="8"/>
       <c r="AD5" s="9"/>
@@ -16610,7 +16613,7 @@
         <v>7</v>
       </c>
       <c r="AG5" s="44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH5" s="25"/>
       <c r="AI5" s="26"/>
@@ -16625,7 +16628,7 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="9"/>
       <c r="AP5" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="9"/>
@@ -16854,7 +16857,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4"/>
       <c r="D11" s="43"/>
@@ -17026,7 +17029,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="4"/>
       <c r="D15" s="43"/>

--- a/To-Do/MainALR.xlsx
+++ b/To-Do/MainALR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmcdonnell1\Downloads\Cost-of-Betrayal\To-Do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529F3C6C-29BA-40F0-ACB7-F91410C07AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550BD3C8-7B1D-48E7-807A-3961D275175B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42696" yWindow="144" windowWidth="17880" windowHeight="15348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="84">
   <si>
     <t>MAIN ALR</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>status and nothing else!</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>Dialogue Backend</t>
@@ -249,12 +246,42 @@
   <si>
     <t>This node wipes all of the player's data and returns them to the title screen if they aren't already there, allowing the player to clear a save slot if needed, this node also has an artificial delay that can be changed if needed</t>
   </si>
+  <si>
+    <t>Tumbleweed Model</t>
+  </si>
+  <si>
+    <t>This'll be used in A LOT of places, it needs to look good</t>
+  </si>
+  <si>
+    <t>Save Slot UI</t>
+  </si>
+  <si>
+    <t>UI_Saving</t>
+  </si>
+  <si>
+    <t>I'm going to use this same UI for the loading page too don't worry lol</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/media?url=https%3A%2F%2Fpreview.redd.it%2Ffile-softlocked-in-black-void-due-to-bug-v0-6c484dtpekne1.jpg%3Fwidth%3D1080%26crop%3Dsmart%26auto%3Dwebp%26s%3D464ff43c8e532a3e7fd476df9249248f2237f309</t>
+  </si>
+  <si>
+    <t>Settings UI</t>
+  </si>
+  <si>
+    <t>UI_Settings</t>
+  </si>
+  <si>
+    <t>NGL mostly gonna be an empty outline and I'll add in all the settings stuff when making the UI function</t>
+  </si>
+  <si>
+    <t>idk</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -280,6 +307,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -503,10 +537,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -551,8 +586,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
@@ -1115,7 +1152,7 @@
   </sheetPr>
   <dimension ref="A1:AM1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1354,20 +1391,20 @@
       <c r="B8" s="17"/>
       <c r="C8" s="3"/>
       <c r="D8" s="7" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
       <c r="H8" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="17"/>
       <c r="K8" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="17"/>
@@ -1402,17 +1439,17 @@
         <v>12</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
       <c r="H9" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="17"/>
       <c r="K9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="17"/>
@@ -1444,20 +1481,20 @@
     </row>
     <row r="10" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
       <c r="H10" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="17"/>
       <c r="K10" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="17"/>
@@ -1492,17 +1529,17 @@
         <v>12</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
       <c r="H11" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="17"/>
       <c r="K11" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="17"/>
@@ -1537,17 +1574,17 @@
         <v>12</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
       <c r="H12" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="17"/>
       <c r="K12" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="17"/>
@@ -1582,17 +1619,17 @@
         <v>12</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
       <c r="H13" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="17"/>
       <c r="K13" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="17"/>
@@ -6413,7 +6450,7 @@
   <dimension ref="A1:AR1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E8" sqref="E8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6430,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -6438,7 +6475,7 @@
     <row r="2" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -6468,7 +6505,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
@@ -6483,7 +6520,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="17"/>
       <c r="N5" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O5" s="16"/>
       <c r="P5" s="17"/>
@@ -6492,7 +6529,7 @@
         <v>7</v>
       </c>
       <c r="S5" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T5" s="16"/>
       <c r="U5" s="17"/>
@@ -6507,7 +6544,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="17"/>
       <c r="AB5" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC5" s="16"/>
       <c r="AD5" s="17"/>
@@ -6515,7 +6552,7 @@
         <v>7</v>
       </c>
       <c r="AG5" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AH5" s="20"/>
       <c r="AI5" s="21"/>
@@ -6530,7 +6567,7 @@
       <c r="AN5" s="16"/>
       <c r="AO5" s="17"/>
       <c r="AP5" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AQ5" s="16"/>
       <c r="AR5" s="17"/>
@@ -6544,17 +6581,17 @@
         <v>12</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
       <c r="H6" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
       <c r="K6" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="17"/>
@@ -6596,17 +6633,17 @@
       <c r="B7" s="17"/>
       <c r="D7" s="7"/>
       <c r="E7" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
       <c r="H7" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="17"/>
       <c r="K7" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="17"/>
@@ -6648,17 +6685,17 @@
       <c r="B8" s="17"/>
       <c r="D8" s="7"/>
       <c r="E8" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
       <c r="H8" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="17"/>
       <c r="K8" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="17"/>
@@ -6696,17 +6733,17 @@
     <row r="9" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="7"/>
       <c r="E9" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
       <c r="H9" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="17"/>
       <c r="K9" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="17"/>
@@ -6744,17 +6781,17 @@
     <row r="10" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="7"/>
       <c r="E10" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
       <c r="H10" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="17"/>
       <c r="K10" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="17"/>
@@ -6791,22 +6828,22 @@
     </row>
     <row r="11" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3"/>
       <c r="D11" s="7"/>
       <c r="E11" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
       <c r="H11" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="17"/>
       <c r="K11" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="17"/>
@@ -6843,13 +6880,19 @@
     </row>
     <row r="12" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="7"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="I12" s="16"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="15"/>
+      <c r="K12" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="L12" s="16"/>
       <c r="M12" s="17"/>
       <c r="N12" s="15"/>
@@ -6969,7 +7012,7 @@
     </row>
     <row r="15" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3"/>
       <c r="D15" s="7"/>
@@ -10810,6 +10853,10 @@
     <mergeCell ref="S70:U70"/>
     <mergeCell ref="V70:X70"/>
     <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="AP73:AR73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
     <mergeCell ref="AB71:AD71"/>
     <mergeCell ref="AG71:AI71"/>
     <mergeCell ref="AJ71:AL71"/>
@@ -10822,14 +10869,6 @@
     <mergeCell ref="S71:U71"/>
     <mergeCell ref="V71:X71"/>
     <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="AP80:AR80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Y80:AA80"/>
     <mergeCell ref="AB72:AD72"/>
     <mergeCell ref="AG72:AI72"/>
     <mergeCell ref="AJ72:AL72"/>
@@ -10871,10 +10910,6 @@
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="V10:X10"/>
     <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AP73:AR73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
     <mergeCell ref="N73:P73"/>
     <mergeCell ref="S73:U73"/>
     <mergeCell ref="V73:X73"/>
@@ -10884,6 +10919,21 @@
     <mergeCell ref="AJ81:AL81"/>
     <mergeCell ref="AM81:AO81"/>
     <mergeCell ref="AP81:AR81"/>
+    <mergeCell ref="AJ80:AL80"/>
+    <mergeCell ref="AM80:AO80"/>
+    <mergeCell ref="AP75:AR75"/>
+    <mergeCell ref="AJ74:AL74"/>
+    <mergeCell ref="AM74:AO74"/>
+    <mergeCell ref="AP74:AR74"/>
+    <mergeCell ref="AP77:AR77"/>
+    <mergeCell ref="AJ76:AL76"/>
+    <mergeCell ref="AM76:AO76"/>
+    <mergeCell ref="AP76:AR76"/>
+    <mergeCell ref="AP79:AR79"/>
+    <mergeCell ref="AJ78:AL78"/>
+    <mergeCell ref="AM78:AO78"/>
+    <mergeCell ref="AP78:AR78"/>
+    <mergeCell ref="AP80:AR80"/>
     <mergeCell ref="E81:G81"/>
     <mergeCell ref="H81:J81"/>
     <mergeCell ref="K81:M81"/>
@@ -10893,9 +10943,13 @@
     <mergeCell ref="Y81:AA81"/>
     <mergeCell ref="AB80:AD80"/>
     <mergeCell ref="AG80:AI80"/>
-    <mergeCell ref="AJ80:AL80"/>
-    <mergeCell ref="AM80:AO80"/>
-    <mergeCell ref="AP75:AR75"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
     <mergeCell ref="E75:G75"/>
     <mergeCell ref="H75:J75"/>
     <mergeCell ref="K75:M75"/>
@@ -10905,9 +10959,6 @@
     <mergeCell ref="Y75:AA75"/>
     <mergeCell ref="AB74:AD74"/>
     <mergeCell ref="AG74:AI74"/>
-    <mergeCell ref="AJ74:AL74"/>
-    <mergeCell ref="AM74:AO74"/>
-    <mergeCell ref="AP74:AR74"/>
     <mergeCell ref="E74:G74"/>
     <mergeCell ref="H74:J74"/>
     <mergeCell ref="K74:M74"/>
@@ -10915,7 +10966,6 @@
     <mergeCell ref="S74:U74"/>
     <mergeCell ref="V74:X74"/>
     <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="AP77:AR77"/>
     <mergeCell ref="E77:G77"/>
     <mergeCell ref="H77:J77"/>
     <mergeCell ref="K77:M77"/>
@@ -10925,9 +10975,6 @@
     <mergeCell ref="Y77:AA77"/>
     <mergeCell ref="AB76:AD76"/>
     <mergeCell ref="AG76:AI76"/>
-    <mergeCell ref="AJ76:AL76"/>
-    <mergeCell ref="AM76:AO76"/>
-    <mergeCell ref="AP76:AR76"/>
     <mergeCell ref="E76:G76"/>
     <mergeCell ref="H76:J76"/>
     <mergeCell ref="K76:M76"/>
@@ -10935,7 +10982,6 @@
     <mergeCell ref="S76:U76"/>
     <mergeCell ref="V76:X76"/>
     <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="AP79:AR79"/>
     <mergeCell ref="E79:G79"/>
     <mergeCell ref="H79:J79"/>
     <mergeCell ref="K79:M79"/>
@@ -10945,9 +10991,6 @@
     <mergeCell ref="Y79:AA79"/>
     <mergeCell ref="AB78:AD78"/>
     <mergeCell ref="AG78:AI78"/>
-    <mergeCell ref="AJ78:AL78"/>
-    <mergeCell ref="AM78:AO78"/>
-    <mergeCell ref="AP78:AR78"/>
     <mergeCell ref="E78:G78"/>
     <mergeCell ref="H78:J78"/>
     <mergeCell ref="K78:M78"/>
@@ -11618,8 +11661,8 @@
   </sheetPr>
   <dimension ref="A1:AR1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8:P8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11636,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -11644,7 +11687,7 @@
     <row r="2" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -11674,7 +11717,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
@@ -11689,7 +11732,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="17"/>
       <c r="N5" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O5" s="16"/>
       <c r="P5" s="17"/>
@@ -11698,7 +11741,7 @@
         <v>7</v>
       </c>
       <c r="S5" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T5" s="16"/>
       <c r="U5" s="17"/>
@@ -11713,7 +11756,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="17"/>
       <c r="AB5" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC5" s="16"/>
       <c r="AD5" s="17"/>
@@ -11721,7 +11764,7 @@
         <v>7</v>
       </c>
       <c r="AG5" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH5" s="20"/>
       <c r="AI5" s="21"/>
@@ -11736,7 +11779,7 @@
       <c r="AN5" s="16"/>
       <c r="AO5" s="17"/>
       <c r="AP5" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AQ5" s="16"/>
       <c r="AR5" s="17"/>
@@ -11748,22 +11791,22 @@
       <c r="B6" s="17"/>
       <c r="D6" s="7"/>
       <c r="E6" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
       <c r="H6" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="17"/>
       <c r="K6" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="17"/>
       <c r="N6" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O6" s="16"/>
       <c r="P6" s="17"/>
@@ -11802,22 +11845,22 @@
       <c r="B7" s="17"/>
       <c r="D7" s="7"/>
       <c r="E7" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
       <c r="H7" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="17"/>
       <c r="K7" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="17"/>
       <c r="N7" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O7" s="16"/>
       <c r="P7" s="17"/>
@@ -11856,22 +11899,22 @@
       <c r="B8" s="17"/>
       <c r="D8" s="7"/>
       <c r="E8" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
       <c r="H8" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="17"/>
       <c r="K8" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="17"/>
       <c r="N8" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O8" s="16"/>
       <c r="P8" s="17"/>
@@ -11905,16 +11948,24 @@
     </row>
     <row r="9" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="7"/>
-      <c r="E9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="I9" s="16"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="25"/>
+      <c r="K9" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="L9" s="16"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="25"/>
+      <c r="N9" s="38" t="s">
+        <v>79</v>
+      </c>
       <c r="O9" s="16"/>
       <c r="P9" s="17"/>
       <c r="Q9" s="2"/>
@@ -11947,16 +11998,24 @@
     </row>
     <row r="10" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="7"/>
-      <c r="E10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="15"/>
+      <c r="H10" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="I10" s="16"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="15"/>
+      <c r="K10" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="L10" s="16"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="15"/>
+      <c r="N10" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="O10" s="16"/>
       <c r="P10" s="17"/>
       <c r="Q10" s="2"/>
@@ -11989,7 +12048,7 @@
     </row>
     <row r="11" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3"/>
       <c r="D11" s="7"/>
@@ -12161,7 +12220,7 @@
     </row>
     <row r="15" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3"/>
       <c r="D15" s="7"/>
@@ -16002,6 +16061,10 @@
     <mergeCell ref="S70:U70"/>
     <mergeCell ref="V70:X70"/>
     <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="AP73:AR73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
     <mergeCell ref="AB71:AD71"/>
     <mergeCell ref="AG71:AI71"/>
     <mergeCell ref="AJ71:AL71"/>
@@ -16014,14 +16077,6 @@
     <mergeCell ref="S71:U71"/>
     <mergeCell ref="V71:X71"/>
     <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="AP80:AR80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Y80:AA80"/>
     <mergeCell ref="AB72:AD72"/>
     <mergeCell ref="AG72:AI72"/>
     <mergeCell ref="AJ72:AL72"/>
@@ -16063,10 +16118,6 @@
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="V10:X10"/>
     <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AP73:AR73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
     <mergeCell ref="N73:P73"/>
     <mergeCell ref="S73:U73"/>
     <mergeCell ref="V73:X73"/>
@@ -16076,6 +16127,21 @@
     <mergeCell ref="AJ81:AL81"/>
     <mergeCell ref="AM81:AO81"/>
     <mergeCell ref="AP81:AR81"/>
+    <mergeCell ref="AJ80:AL80"/>
+    <mergeCell ref="AM80:AO80"/>
+    <mergeCell ref="AP75:AR75"/>
+    <mergeCell ref="AJ74:AL74"/>
+    <mergeCell ref="AM74:AO74"/>
+    <mergeCell ref="AP74:AR74"/>
+    <mergeCell ref="AP77:AR77"/>
+    <mergeCell ref="AJ76:AL76"/>
+    <mergeCell ref="AM76:AO76"/>
+    <mergeCell ref="AP76:AR76"/>
+    <mergeCell ref="AP79:AR79"/>
+    <mergeCell ref="AJ78:AL78"/>
+    <mergeCell ref="AM78:AO78"/>
+    <mergeCell ref="AP78:AR78"/>
+    <mergeCell ref="AP80:AR80"/>
     <mergeCell ref="E81:G81"/>
     <mergeCell ref="H81:J81"/>
     <mergeCell ref="K81:M81"/>
@@ -16085,9 +16151,13 @@
     <mergeCell ref="Y81:AA81"/>
     <mergeCell ref="AB80:AD80"/>
     <mergeCell ref="AG80:AI80"/>
-    <mergeCell ref="AJ80:AL80"/>
-    <mergeCell ref="AM80:AO80"/>
-    <mergeCell ref="AP75:AR75"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
     <mergeCell ref="E75:G75"/>
     <mergeCell ref="H75:J75"/>
     <mergeCell ref="K75:M75"/>
@@ -16097,9 +16167,6 @@
     <mergeCell ref="Y75:AA75"/>
     <mergeCell ref="AB74:AD74"/>
     <mergeCell ref="AG74:AI74"/>
-    <mergeCell ref="AJ74:AL74"/>
-    <mergeCell ref="AM74:AO74"/>
-    <mergeCell ref="AP74:AR74"/>
     <mergeCell ref="E74:G74"/>
     <mergeCell ref="H74:J74"/>
     <mergeCell ref="K74:M74"/>
@@ -16107,7 +16174,6 @@
     <mergeCell ref="S74:U74"/>
     <mergeCell ref="V74:X74"/>
     <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="AP77:AR77"/>
     <mergeCell ref="E77:G77"/>
     <mergeCell ref="H77:J77"/>
     <mergeCell ref="K77:M77"/>
@@ -16117,9 +16183,6 @@
     <mergeCell ref="Y77:AA77"/>
     <mergeCell ref="AB76:AD76"/>
     <mergeCell ref="AG76:AI76"/>
-    <mergeCell ref="AJ76:AL76"/>
-    <mergeCell ref="AM76:AO76"/>
-    <mergeCell ref="AP76:AR76"/>
     <mergeCell ref="E76:G76"/>
     <mergeCell ref="H76:J76"/>
     <mergeCell ref="K76:M76"/>
@@ -16127,7 +16190,6 @@
     <mergeCell ref="S76:U76"/>
     <mergeCell ref="V76:X76"/>
     <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="AP79:AR79"/>
     <mergeCell ref="E79:G79"/>
     <mergeCell ref="H79:J79"/>
     <mergeCell ref="K79:M79"/>
@@ -16137,9 +16199,6 @@
     <mergeCell ref="Y79:AA79"/>
     <mergeCell ref="AB78:AD78"/>
     <mergeCell ref="AG78:AI78"/>
-    <mergeCell ref="AJ78:AL78"/>
-    <mergeCell ref="AM78:AO78"/>
-    <mergeCell ref="AP78:AR78"/>
     <mergeCell ref="E78:G78"/>
     <mergeCell ref="H78:J78"/>
     <mergeCell ref="K78:M78"/>
@@ -16793,12 +16852,15 @@
       <formula1>"In Progress,Blocked,Finished"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N9" r:id="rId1" xr:uid="{F2467E79-6640-4084-9FCB-035D8962D55B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -16810,7 +16872,9 @@
   </sheetPr>
   <dimension ref="A1:AR1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16826,7 +16890,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -16834,7 +16898,7 @@
     <row r="2" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -16864,7 +16928,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
@@ -16879,7 +16943,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="17"/>
       <c r="N5" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O5" s="16"/>
       <c r="P5" s="17"/>
@@ -16888,7 +16952,7 @@
         <v>7</v>
       </c>
       <c r="S5" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T5" s="16"/>
       <c r="U5" s="17"/>
@@ -16903,7 +16967,7 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="17"/>
       <c r="AB5" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC5" s="16"/>
       <c r="AD5" s="17"/>
@@ -16911,7 +16975,7 @@
         <v>7</v>
       </c>
       <c r="AG5" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH5" s="20"/>
       <c r="AI5" s="21"/>
@@ -16926,7 +16990,7 @@
       <c r="AN5" s="16"/>
       <c r="AO5" s="17"/>
       <c r="AP5" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AQ5" s="16"/>
       <c r="AR5" s="17"/>
@@ -17155,7 +17219,7 @@
     </row>
     <row r="11" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3"/>
       <c r="D11" s="7"/>
@@ -17327,7 +17391,7 @@
     </row>
     <row r="15" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3"/>
       <c r="D15" s="7"/>
@@ -21168,6 +21232,10 @@
     <mergeCell ref="S70:U70"/>
     <mergeCell ref="V70:X70"/>
     <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="AP73:AR73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
     <mergeCell ref="AB71:AD71"/>
     <mergeCell ref="AG71:AI71"/>
     <mergeCell ref="AJ71:AL71"/>
@@ -21180,14 +21248,6 @@
     <mergeCell ref="S71:U71"/>
     <mergeCell ref="V71:X71"/>
     <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="AP80:AR80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="Y80:AA80"/>
     <mergeCell ref="AB72:AD72"/>
     <mergeCell ref="AG72:AI72"/>
     <mergeCell ref="AJ72:AL72"/>
@@ -21229,10 +21289,6 @@
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="V10:X10"/>
     <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AP73:AR73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
     <mergeCell ref="N73:P73"/>
     <mergeCell ref="S73:U73"/>
     <mergeCell ref="V73:X73"/>
@@ -21242,6 +21298,21 @@
     <mergeCell ref="AJ81:AL81"/>
     <mergeCell ref="AM81:AO81"/>
     <mergeCell ref="AP81:AR81"/>
+    <mergeCell ref="AJ80:AL80"/>
+    <mergeCell ref="AM80:AO80"/>
+    <mergeCell ref="AP75:AR75"/>
+    <mergeCell ref="AJ74:AL74"/>
+    <mergeCell ref="AM74:AO74"/>
+    <mergeCell ref="AP74:AR74"/>
+    <mergeCell ref="AP77:AR77"/>
+    <mergeCell ref="AJ76:AL76"/>
+    <mergeCell ref="AM76:AO76"/>
+    <mergeCell ref="AP76:AR76"/>
+    <mergeCell ref="AP79:AR79"/>
+    <mergeCell ref="AJ78:AL78"/>
+    <mergeCell ref="AM78:AO78"/>
+    <mergeCell ref="AP78:AR78"/>
+    <mergeCell ref="AP80:AR80"/>
     <mergeCell ref="E81:G81"/>
     <mergeCell ref="H81:J81"/>
     <mergeCell ref="K81:M81"/>
@@ -21251,9 +21322,13 @@
     <mergeCell ref="Y81:AA81"/>
     <mergeCell ref="AB80:AD80"/>
     <mergeCell ref="AG80:AI80"/>
-    <mergeCell ref="AJ80:AL80"/>
-    <mergeCell ref="AM80:AO80"/>
-    <mergeCell ref="AP75:AR75"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="Y80:AA80"/>
     <mergeCell ref="E75:G75"/>
     <mergeCell ref="H75:J75"/>
     <mergeCell ref="K75:M75"/>
@@ -21263,9 +21338,6 @@
     <mergeCell ref="Y75:AA75"/>
     <mergeCell ref="AB74:AD74"/>
     <mergeCell ref="AG74:AI74"/>
-    <mergeCell ref="AJ74:AL74"/>
-    <mergeCell ref="AM74:AO74"/>
-    <mergeCell ref="AP74:AR74"/>
     <mergeCell ref="E74:G74"/>
     <mergeCell ref="H74:J74"/>
     <mergeCell ref="K74:M74"/>
@@ -21273,7 +21345,6 @@
     <mergeCell ref="S74:U74"/>
     <mergeCell ref="V74:X74"/>
     <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="AP77:AR77"/>
     <mergeCell ref="E77:G77"/>
     <mergeCell ref="H77:J77"/>
     <mergeCell ref="K77:M77"/>
@@ -21283,9 +21354,6 @@
     <mergeCell ref="Y77:AA77"/>
     <mergeCell ref="AB76:AD76"/>
     <mergeCell ref="AG76:AI76"/>
-    <mergeCell ref="AJ76:AL76"/>
-    <mergeCell ref="AM76:AO76"/>
-    <mergeCell ref="AP76:AR76"/>
     <mergeCell ref="E76:G76"/>
     <mergeCell ref="H76:J76"/>
     <mergeCell ref="K76:M76"/>
@@ -21293,7 +21361,6 @@
     <mergeCell ref="S76:U76"/>
     <mergeCell ref="V76:X76"/>
     <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="AP79:AR79"/>
     <mergeCell ref="E79:G79"/>
     <mergeCell ref="H79:J79"/>
     <mergeCell ref="K79:M79"/>
@@ -21303,9 +21370,6 @@
     <mergeCell ref="Y79:AA79"/>
     <mergeCell ref="AB78:AD78"/>
     <mergeCell ref="AG78:AI78"/>
-    <mergeCell ref="AJ78:AL78"/>
-    <mergeCell ref="AM78:AO78"/>
-    <mergeCell ref="AP78:AR78"/>
     <mergeCell ref="E78:G78"/>
     <mergeCell ref="H78:J78"/>
     <mergeCell ref="K78:M78"/>

--- a/To-Do/MainALR.xlsx
+++ b/To-Do/MainALR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmcdonnell1\Downloads\Cost-of-Betrayal\To-Do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ADE650-D4FE-4782-A7AB-03B90F9BE492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB33F30-6B54-4BE8-A543-4EDE0131A39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42696" yWindow="144" windowWidth="17880" windowHeight="15348" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42696" yWindow="144" windowWidth="17880" windowHeight="15348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coding" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="129">
   <si>
     <t>MainALR</t>
   </si>
@@ -417,6 +417,15 @@
   <si>
     <t>Code in begin game functionality, animations, and camera movement setup for the title screen</t>
   </si>
+  <si>
+    <t>Interpolation Object</t>
+  </si>
+  <si>
+    <t>BP_InterpPoint</t>
+  </si>
+  <si>
+    <t>Level Design Toolkit: A blueprint that allows the level designer to select and object, set it to a certain point, and then interpolate that object between that set position and another selected position without needing to touch any blueprints, should only be used for basic movements, any advanced animation should use a specified blueprint</t>
+  </si>
 </sst>
 </file>
 
@@ -761,12 +770,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1331,8 +1340,8 @@
   </sheetPr>
   <dimension ref="A1:AM1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:G19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2020,7 +2029,7 @@
     </row>
     <row r="18" spans="4:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="7" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>124</v>
@@ -2064,14 +2073,22 @@
       <c r="AM18" s="17"/>
     </row>
     <row r="19" spans="4:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="8"/>
-      <c r="E19" s="18"/>
+      <c r="D19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="I19" s="16"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="K19" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="L19" s="16"/>
       <c r="M19" s="17"/>
       <c r="N19" s="2"/>
@@ -11890,7 +11907,7 @@
   </sheetPr>
   <dimension ref="A1:AR1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
@@ -12021,11 +12038,11 @@
       <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="15" t="s">
         <v>75</v>
       </c>
@@ -12075,7 +12092,7 @@
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="42" t="s">
         <v>79</v>
       </c>
       <c r="F7" s="16"/>
@@ -12129,7 +12146,7 @@
       </c>
       <c r="B8" s="17"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="42" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="16"/>
@@ -12346,7 +12363,7 @@
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="17"/>
-      <c r="N12" s="40" t="s">
+      <c r="N12" s="43" t="s">
         <v>101</v>
       </c>
       <c r="O12" s="16"/>
@@ -12446,7 +12463,7 @@
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="41" t="s">
+      <c r="N14" s="44" t="s">
         <v>108</v>
       </c>
       <c r="O14" s="16"/>

--- a/To-Do/MainALR.xlsx
+++ b/To-Do/MainALR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmcdonnell1\Downloads\Cost-of-Betrayal\To-Do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB33F30-6B54-4BE8-A543-4EDE0131A39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167519F8-05AB-4A12-B493-FE0E0ECB6DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42696" yWindow="144" windowWidth="17880" windowHeight="15348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="131">
   <si>
     <t>MainALR</t>
   </si>
@@ -425,6 +425,12 @@
   </si>
   <si>
     <t>Level Design Toolkit: A blueprint that allows the level designer to select and object, set it to a certain point, and then interpolate that object between that set position and another selected position without needing to touch any blueprints, should only be used for basic movements, any advanced animation should use a specified blueprint</t>
+  </si>
+  <si>
+    <t>Title Button UI</t>
+  </si>
+  <si>
+    <t>Yony u alr know gng</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1347,7 @@
   <dimension ref="A1:AM1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:M20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2074,7 +2080,7 @@
     </row>
     <row r="19" spans="4:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="8" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>126</v>
@@ -11907,8 +11913,8 @@
   </sheetPr>
   <dimension ref="A1:AR1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:G6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12145,7 +12151,9 @@
         <v>82</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="42" t="s">
         <v>83</v>
       </c>
@@ -12501,14 +12509,22 @@
         <v>66</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>129</v>
+      </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="I15" s="16"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
+      <c r="K15" s="18" t="s">
+        <v>130</v>
+      </c>
       <c r="L15" s="16"/>
       <c r="M15" s="17"/>
       <c r="N15" s="18"/>
